--- a/testcase/auto_test_excel.xlsx
+++ b/testcase/auto_test_excel.xlsx
@@ -1277,8 +1277,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1289,8 +1289,9 @@
     <col min="4" max="4" width="63" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="14" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="14" width="12.5" customWidth="1"/>
     <col min="15" max="15" width="12.5" style="2" customWidth="1"/>
     <col min="16" max="16384" width="12.5" customWidth="1"/>
   </cols>
